--- a/manufacturing-data/r2c/BOM_PCBWay.xlsx
+++ b/manufacturing-data/r2c/BOM_PCBWay.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\open-lcc-board\manufacturing-data\r2c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE7A5CE-7F25-4D95-8427-34B933B0EA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490F7EE-43F1-4D7C-9A76-9FA8E3B171D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38715" yWindow="2820" windowWidth="32370" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2970" windowWidth="34275" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="141">
   <si>
     <t>xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -271,9 +271,6 @@
     <t>TPZ3V6C-1006</t>
   </si>
   <si>
-    <t>F0503-ZV-24-20T-R</t>
-  </si>
-  <si>
     <t>Conn_01x24</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>RP2040</t>
   </si>
   <si>
-    <t>ESP32-S3-WROOM-1</t>
-  </si>
-  <si>
     <t>W25Q16JVSNIQ (Program Flash)</t>
   </si>
   <si>
@@ -433,9 +427,6 @@
     <t>26-FH34SRJ-24S-0.5SH(50)DKR-ND</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>10 uF, 25 V, X7R</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
     <t>W25Q16JVSNIQ</t>
   </si>
   <si>
-    <t>ESP32-WROOM-32UE-N8</t>
-  </si>
-  <si>
     <t>Espressif Systems</t>
   </si>
   <si>
@@ -490,12 +478,6 @@
     <t>FH34SRJ-24S-0.5SH(50)</t>
   </si>
   <si>
-    <t>XFCN</t>
-  </si>
-  <si>
-    <t>F0503-ZV-20-20T-R</t>
-  </si>
-  <si>
     <t>TechPublic</t>
   </si>
   <si>
@@ -518,13 +500,43 @@
   </si>
   <si>
     <t>160-1827-6-ND</t>
+  </si>
+  <si>
+    <t>TE Connectivity AMP Connectors</t>
+  </si>
+  <si>
+    <t>2-1734742-4</t>
+  </si>
+  <si>
+    <t>A100238DKR-ND</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>SMD IC</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>Digikey parts</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1U-N16R8</t>
+  </si>
+  <si>
+    <t>RF TXRX MOD BLUETOOTH U.FL SMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,6 +614,38 @@
       <color rgb="FF333333"/>
       <name val="HarmonyOS Sans SC"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="HarmonyOS Sans SC"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -629,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -652,6 +696,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -662,7 +719,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,45 +745,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,7 +778,60 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1093,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L51"/>
+  <dimension ref="A2:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1110,32 +1201,41 @@
     <col min="7" max="7" width="86" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="26.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9" style="37"/>
+    <col min="17" max="17" width="22.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" style="37" customWidth="1"/>
+    <col min="19" max="21" width="9" style="37"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="D2" s="22" t="s">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="6" spans="1:12" ht="28.5" customHeight="1">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="I5" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1160,15 +1260,17 @@
       <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="6">
@@ -1177,21 +1279,24 @@
       <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="15">
+      <c r="E7" s="24"/>
+      <c r="F7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="Q7" s="39"/>
+    </row>
+    <row r="8" spans="1:18" ht="15">
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6">
@@ -1200,21 +1305,24 @@
       <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="15">
+      <c r="G8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="Q8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" ht="15">
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6">
@@ -1223,21 +1331,24 @@
       <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15">
+      <c r="G9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="Q9" s="39"/>
+    </row>
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6">
@@ -1246,21 +1357,24 @@
       <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="15">
+      <c r="G10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="1:18" ht="15">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6">
@@ -1269,21 +1383,24 @@
       <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="15">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="Q11" s="39"/>
+    </row>
+    <row r="12" spans="1:18" ht="15">
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="6">
@@ -1292,21 +1409,24 @@
       <c r="D12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="15">
+      <c r="G12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="Q12" s="39"/>
+    </row>
+    <row r="13" spans="1:18" ht="15">
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="6">
@@ -1315,21 +1435,24 @@
       <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="15">
+      <c r="G13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="Q13" s="39"/>
+    </row>
+    <row r="14" spans="1:18" ht="15">
       <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="6">
@@ -1338,296 +1461,269 @@
       <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="25">
+      <c r="E14" s="24"/>
+      <c r="F14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="Q14" s="39"/>
+    </row>
+    <row r="15" spans="1:18" ht="15">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <v>4</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L15" s="1">
-        <f>K15*C15</f>
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="25">
+      <c r="Q15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" ht="15">
+      <c r="A16" s="18">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="18">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" ref="L16:L40" si="0">K16*C16</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
+      <c r="G16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" spans="1:17" ht="15">
       <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15">
+      <c r="D17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15">
+      <c r="F18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="41"/>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="1:17" ht="15">
       <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="6">
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15">
+        <v>121</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="1:17" ht="15">
       <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
+        <v>119</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="1:17" ht="15">
       <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15">
+        <v>57</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" spans="1:17" ht="15">
       <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15">
+        <v>58</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" ht="15">
       <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="6">
@@ -1636,26 +1732,25 @@
       <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="20"/>
-      <c r="L23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15">
+      <c r="E23" s="24"/>
+      <c r="F23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="41"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="1:17" ht="15">
       <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="6">
@@ -1664,26 +1759,25 @@
       <c r="D24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="20"/>
-      <c r="L24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15">
+      <c r="E24" s="24"/>
+      <c r="F24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="41"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:17" ht="15">
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="6">
@@ -1692,26 +1786,25 @@
       <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="20"/>
-      <c r="L25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15">
+      <c r="E25" s="24"/>
+      <c r="F25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="41"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" ht="15">
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="6">
@@ -1720,26 +1813,25 @@
       <c r="D26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="20"/>
-      <c r="L26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15">
+      <c r="E26" s="24"/>
+      <c r="F26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="41"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:17" ht="15">
       <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="6">
@@ -1748,26 +1840,25 @@
       <c r="D27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="20"/>
-      <c r="L27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15">
+      <c r="E27" s="24"/>
+      <c r="F27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="41"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="1:17" ht="15">
       <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="6">
@@ -1776,26 +1867,25 @@
       <c r="D28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="20"/>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15">
+      <c r="E28" s="24"/>
+      <c r="F28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="41"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="6">
@@ -1804,26 +1894,25 @@
       <c r="D29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="20"/>
-      <c r="L29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15">
+      <c r="E29" s="24"/>
+      <c r="F29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="41"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" ht="15">
       <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="6">
@@ -1832,26 +1921,25 @@
       <c r="D30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="20"/>
-      <c r="L30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15">
+      <c r="E30" s="24"/>
+      <c r="F30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="41"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="1:17" ht="15">
       <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="6">
@@ -1860,26 +1948,25 @@
       <c r="D31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="20"/>
-      <c r="L31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15">
+      <c r="E31" s="24"/>
+      <c r="F31" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="41"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="1:17" ht="15">
       <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="6">
@@ -1888,407 +1975,396 @@
       <c r="D32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="20"/>
-      <c r="L32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15">
+      <c r="E32" s="24"/>
+      <c r="F32" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="41"/>
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="1:18" ht="15">
       <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15">
+        <v>116</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="41"/>
+      <c r="Q33" s="39"/>
+    </row>
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15">
+        <v>114</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="41"/>
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" ht="15">
       <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="1">
-        <v>2.59</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="0"/>
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15">
+        <v>139</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="41"/>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15">
+        <v>112</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>135</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="41"/>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="0"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15">
+        <v>112</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="41"/>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38" s="1">
-        <v>3.95</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15">
+        <v>110</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="41"/>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15">
-      <c r="A40" s="25">
+        <v>108</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="15">
+      <c r="A40" s="18">
         <v>34</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="18">
         <v>1</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E40" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="L42" s="1">
-        <f>SUM(L7:L41)</f>
-        <v>21.509999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="11" t="s">
+      <c r="I40" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="41"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" ht="13.5">
-      <c r="A51" s="12" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+    </row>
+    <row r="51" spans="1:21" s="2" customFormat="1" ht="13.5">
+      <c r="A51" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/manufacturing-data/r2c/BOM_PCBWay.xlsx
+++ b/manufacturing-data/r2c/BOM_PCBWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\open-lcc-board\manufacturing-data\r2c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490F7EE-43F1-4D7C-9A76-9FA8E3B171D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE88C08-772D-4DE4-A7FB-580C258F12C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2970" windowWidth="34275" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3465" windowWidth="28755" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="142">
   <si>
     <t>xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -352,9 +352,6 @@
     <t>PCM_Diode_SMD_AKL:D_SOD-882_DFN1006-2</t>
   </si>
   <si>
-    <t>2N7002:FPC_24</t>
-  </si>
-  <si>
     <t>FH34SRJ-24S-0.5SH_50:FH34SRJ24S05SH50</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>296-47436-6-ND</t>
   </si>
   <si>
-    <t>296-11604-6-ND</t>
-  </si>
-  <si>
     <t>296-46427-6-ND</t>
   </si>
   <si>
@@ -530,6 +524,15 @@
   </si>
   <si>
     <t>RF TXRX MOD BLUETOOTH U.FL SMD</t>
+  </si>
+  <si>
+    <t>296-11603-1-ND</t>
+  </si>
+  <si>
+    <t>F0503-ZV-24-20T-R:FPC_24</t>
+  </si>
+  <si>
+    <t>LED_0603_1608Metric</t>
   </si>
 </sst>
 </file>
@@ -787,21 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,21 +797,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -831,6 +819,21 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1201,38 +1204,38 @@
     <col min="7" max="7" width="86" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9" style="37"/>
-    <col min="17" max="17" width="22.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="37" customWidth="1"/>
-    <col min="19" max="21" width="9" style="37"/>
+    <col min="10" max="10" width="26.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9" style="32"/>
+    <col min="17" max="17" width="22.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" style="32" customWidth="1"/>
+    <col min="19" max="21" width="9" style="32"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="D2" s="29" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="D2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:18">
       <c r="I5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
@@ -1260,11 +1263,11 @@
       <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:18" ht="15">
       <c r="A7" s="6">
@@ -1281,16 +1284,16 @@
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>76</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="Q7" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:18" ht="15">
       <c r="A8" s="6">
@@ -1313,10 +1316,10 @@
         <v>77</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="Q8" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:18" ht="15">
       <c r="A9" s="6">
@@ -1339,10 +1342,10 @@
         <v>77</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="Q9" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:18" ht="15">
       <c r="A10" s="6">
@@ -1365,10 +1368,10 @@
         <v>77</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="Q10" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:18" ht="15">
       <c r="A11" s="6">
@@ -1391,10 +1394,10 @@
         <v>78</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="Q11" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:18" ht="15">
       <c r="A12" s="6">
@@ -1417,10 +1420,10 @@
         <v>77</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="Q12" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="1:18" ht="15">
       <c r="A13" s="6">
@@ -1443,10 +1446,10 @@
         <v>76</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="Q13" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:18" ht="15">
       <c r="A14" s="6">
@@ -1463,16 +1466,16 @@
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>79</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="Q14" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="Q14" s="34"/>
     </row>
     <row r="15" spans="1:18" ht="15">
       <c r="A15" s="18">
@@ -1485,22 +1488,24 @@
         <v>4</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>123</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="H15" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q15" s="40"/>
+        <v>132</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:18" ht="15">
       <c r="A16" s="18">
@@ -1513,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>53</v>
@@ -1525,13 +1530,13 @@
         <v>80</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="Q16" s="42"/>
+        <v>132</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" ht="15">
       <c r="A17" s="6">
@@ -1544,25 +1549,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="41"/>
-      <c r="Q17" s="43"/>
+      <c r="J17" s="36"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="1:17" ht="15">
       <c r="A18" s="6">
@@ -1575,25 +1580,25 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="Q18" s="39"/>
+        <v>134</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" ht="15">
       <c r="A19" s="6">
@@ -1606,25 +1611,25 @@
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="41"/>
-      <c r="Q19" s="39"/>
+        <v>134</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" ht="15">
       <c r="A20" s="6">
@@ -1637,25 +1642,25 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="41"/>
-      <c r="Q20" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="15">
       <c r="A21" s="6">
@@ -1668,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>57</v>
@@ -1677,16 +1682,16 @@
         <v>57</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="41"/>
-      <c r="Q21" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="1:17" ht="15">
       <c r="A22" s="6">
@@ -1699,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>58</v>
@@ -1708,16 +1713,16 @@
         <v>58</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="Q22" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="Q22" s="34"/>
     </row>
     <row r="23" spans="1:17" ht="15">
       <c r="A23" s="6">
@@ -1737,14 +1742,14 @@
         <v>59</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="41"/>
-      <c r="Q23" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="36"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="15">
       <c r="A24" s="6">
@@ -1764,14 +1769,14 @@
         <v>60</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="41"/>
-      <c r="Q24" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="36"/>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="15">
       <c r="A25" s="6">
@@ -1791,14 +1796,14 @@
         <v>61</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="41"/>
-      <c r="Q25" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="36"/>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:17" ht="15">
       <c r="A26" s="6">
@@ -1818,14 +1823,14 @@
         <v>62</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="41"/>
-      <c r="Q26" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="36"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="15">
       <c r="A27" s="6">
@@ -1845,14 +1850,14 @@
         <v>63</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="41"/>
-      <c r="Q27" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="36"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="15">
       <c r="A28" s="6">
@@ -1872,14 +1877,14 @@
         <v>64</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="41"/>
-      <c r="Q28" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="36"/>
+      <c r="Q28" s="34"/>
     </row>
     <row r="29" spans="1:17" ht="15">
       <c r="A29" s="6">
@@ -1899,14 +1904,14 @@
         <v>65</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="41"/>
-      <c r="Q29" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I29" s="28"/>
+      <c r="J29" s="36"/>
+      <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:17" ht="15">
       <c r="A30" s="6">
@@ -1926,14 +1931,14 @@
         <v>66</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="41"/>
-      <c r="Q30" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I30" s="28"/>
+      <c r="J30" s="36"/>
+      <c r="Q30" s="34"/>
     </row>
     <row r="31" spans="1:17" ht="15">
       <c r="A31" s="6">
@@ -1953,14 +1958,14 @@
         <v>67</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="41"/>
-      <c r="Q31" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I31" s="28"/>
+      <c r="J31" s="36"/>
+      <c r="Q31" s="34"/>
     </row>
     <row r="32" spans="1:17" ht="15">
       <c r="A32" s="6">
@@ -1980,14 +1985,14 @@
         <v>68</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="41"/>
-      <c r="Q32" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I32" s="28"/>
+      <c r="J32" s="36"/>
+      <c r="Q32" s="34"/>
     </row>
     <row r="33" spans="1:18" ht="15">
       <c r="A33" s="6">
@@ -2000,25 +2005,25 @@
         <v>2</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="41"/>
-      <c r="Q33" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="36"/>
+      <c r="Q33" s="34"/>
     </row>
     <row r="34" spans="1:18" ht="15">
       <c r="A34" s="6">
@@ -2031,25 +2036,25 @@
         <v>1</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>70</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="41"/>
-      <c r="Q34" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="Q34" s="34"/>
     </row>
     <row r="35" spans="1:18" ht="15">
       <c r="A35" s="6">
@@ -2062,25 +2067,25 @@
         <v>1</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="Q35" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="Q35" s="34"/>
     </row>
     <row r="36" spans="1:18" ht="15">
       <c r="A36" s="6">
@@ -2093,25 +2098,25 @@
         <v>1</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="Q36" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="Q36" s="34"/>
     </row>
     <row r="37" spans="1:18" ht="15">
       <c r="A37" s="6">
@@ -2124,25 +2129,25 @@
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="Q37" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="Q37" s="34"/>
     </row>
     <row r="38" spans="1:18" ht="15">
       <c r="A38" s="6">
@@ -2155,25 +2160,25 @@
         <v>1</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>73</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="41"/>
-      <c r="Q38" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="Q38" s="34"/>
     </row>
     <row r="39" spans="1:18" ht="15">
       <c r="A39" s="6">
@@ -2186,25 +2191,25 @@
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="16" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="Q39" s="39"/>
+        <v>133</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="Q39" s="34"/>
     </row>
     <row r="40" spans="1:18" ht="15">
       <c r="A40" s="18">
@@ -2217,25 +2222,25 @@
         <v>1</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="J40" s="41"/>
-      <c r="Q40" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="Q40" s="34"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="10"/>
@@ -2247,8 +2252,8 @@
       <c r="G41" s="13"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="10"/>
@@ -2260,8 +2265,8 @@
       <c r="G42" s="13"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="Q42" s="39"/>
-      <c r="R42" s="39"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="10"/>
@@ -2273,8 +2278,8 @@
       <c r="G43" s="13"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="10"/>
@@ -2286,8 +2291,8 @@
       <c r="G44" s="13"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="10"/>
@@ -2299,8 +2304,8 @@
       <c r="G45" s="13"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10"/>
@@ -2312,21 +2317,21 @@
       <c r="G46" s="13"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="9"/>
@@ -2338,33 +2343,33 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
     </row>
     <row r="51" spans="1:21" s="2" customFormat="1" ht="13.5">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
